--- a/Tabels.xlsx
+++ b/Tabels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forcessofnature\Documents\Mortgage-Analysis-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3F8DE3-FA02-411C-A66B-59E012200EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81308314-5C79-438E-9492-222EE6DE3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="-20895" windowWidth="26340" windowHeight="19230" xr2:uid="{778853BD-983C-410C-98D5-8F96941A5DA7}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{778853BD-983C-410C-98D5-8F96941A5DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tbl 1 2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>count</t>
   </si>
@@ -219,8 +219,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -261,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -380,12 +380,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,9 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,8 +413,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,6 +441,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3494E3F5-5E69-4F77-9B1A-6B33A444EC4E}">
   <dimension ref="B3:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -820,28 +838,28 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="25">
         <v>3636300</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.92504248824354396</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.26332280998892998</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.25</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.75</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -849,26 +867,26 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
+      <c r="C6" s="25"/>
+      <c r="D6" s="7">
         <v>4.5749997102167299</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.53709268248188302</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3.0445224377234199</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>4.1896547420264199</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>4.5643481914678299</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>4.9416424226093003</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>5.9989365619466799</v>
       </c>
     </row>
@@ -876,26 +894,26 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
+      <c r="C7" s="25"/>
+      <c r="D7" s="7">
         <v>12.4578809738159</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.66149491071701005</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>8.5173931121826101</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>12.128116607666</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>12.487488746643001</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>12.8610010147094</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>13.9936571121215</v>
       </c>
     </row>
@@ -903,26 +921,26 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8">
+      <c r="C8" s="25"/>
+      <c r="D8" s="7">
         <v>12.648886680603001</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.589638352394104</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>8.5173931121826101</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>12.2783975601196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>12.628069877624499</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>13.02805519104</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>13.9936571121215</v>
       </c>
     </row>
@@ -1079,10 +1097,10 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1093,324 +1111,324 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1.2773000000000001</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>23.518999999999998</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.87690000000000001</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>159.51400000000001</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>-0.23849999999999999</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>-37.305999999999997</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>5.5129999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>-0.86639999999999995</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>-123.6</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>-0.43759999999999999</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>-57.674999999999997</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>-0.4824</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>-84.525000000000006</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>-0.30270000000000002</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>0.01</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>-30.561</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>-0.39679999999999999</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>-45.118000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>-0.4884</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>-14.096</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>-0.53439999999999999</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>-33.448999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>-0.58150000000000002</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>-13.542999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>-0.4113</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>0.01</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>-41.982999999999997</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>-0.50980000000000003</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>-39.173000000000002</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>0.1235</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>22.597000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>5.056</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>-5.0890000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>-0.22539999999999999</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>-42.683</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>-0.37119999999999997</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>-62.424999999999997</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>-0.33069999999999999</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>-45.542999999999999</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>-7.7100000000000002E-2</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>-7.0910000000000002</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>-0.1053</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>-11.208</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>-2.92E-2</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>-1.3720000000000001</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1418,45 +1436,45 @@
       </c>
     </row>
     <row r="46" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>3.4853000000000001</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>49.521999999999998</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>0.17960000000000001</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>35.540999999999997</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>0.41949999999999998</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>58.645000000000003</v>
       </c>
       <c r="F48" s="3"/>
@@ -1491,17 +1509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DEC59C-1116-468C-9C3C-D5FAC55E8EBE}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
@@ -1510,10 +1528,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1522,215 +1540,205 @@
       <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.92</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.96</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.94</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.97</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>0.94</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0.92</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.96</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>0.92</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.96</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>0.94</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.97</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>0.92</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.96</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.92</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.95</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>0.95</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.97</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>0.94</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.93</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.96</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.92</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.96</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>0.92</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.94</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.97</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0.94</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="B15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>0.92</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0.96</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>0.92</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabels.xlsx
+++ b/Tabels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forcessofnature\Documents\Mortgage-Analysis-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81308314-5C79-438E-9492-222EE6DE3650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E221D7-C786-48CD-85EC-4FDDAB9279FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{778853BD-983C-410C-98D5-8F96941A5DA7}"/>
+    <workbookView xWindow="11730" yWindow="-21600" windowWidth="38700" windowHeight="20145" xr2:uid="{778853BD-983C-410C-98D5-8F96941A5DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tbl 1 2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>count</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>* Statistically  not significant at 10%</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>VIF</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,6 +459,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,17 +808,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3494E3F5-5E69-4F77-9B1A-6B33A444EC4E}">
-  <dimension ref="B3:J49"/>
+  <dimension ref="B3:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="60.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" customWidth="1"/>
     <col min="6" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1278,7 +1297,7 @@
         <v>-13.542999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:6" ht="23.25" x14ac:dyDescent="0.7">
       <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
@@ -1479,9 +1498,41 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="C57" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="C58" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.686896</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="C59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11">
+        <v>2.6685110000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="C60" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="29">
+        <v>3.1595580000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DEC59C-1116-468C-9C3C-D5FAC55E8EBE}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
